--- a/test.xlsx
+++ b/test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,88 @@
         <v>45787</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12334</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bomkesh Samagra</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Saradindu Bondopadhaya</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mainak Bondopadhaya</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1221112</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oitihasik Somogro</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Saradindu Bondopadhaya</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mainak Bondopadhaya</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1221112</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oitihasik Somogro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Saradindu Bondopadhaya</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mainak Bondopadhaya</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
